--- a/Project Outputs for PS Digital Test v1.0.0/PDF BOM-PS Digital Test v1.0.0.xlsx
+++ b/Project Outputs for PS Digital Test v1.0.0/PDF BOM-PS Digital Test v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\O-Scope Probe\Digital Test - PCB\Project Outputs for PS Digital Test v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF02BC-DF02-4414-9BD0-44BA77A619FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D0E7DE-CB42-4BB2-9678-6CA6CA4EA135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BOC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BOC!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOC!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,18 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="196">
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>+3.3V, +5V_USB, DONE, FCS, FMISO, FMOSI, FSCK, GND, INTN, JTEN, PGMN, Vref</t>
+    <t>+1.8V, +3.3V, +5V_USB, DONE, FCS, FMISO, FMOSI, FSCK, GND, INTN, JTEN, PGMN, Vref</t>
   </si>
   <si>
     <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C41, C42, C43, C44, C46, C47, C48, C50, C51, C52, C54, C55, C56, C58, C59, C60, C62</t>
   </si>
   <si>
-    <t>C12</t>
+    <t>C12, C31, C32</t>
   </si>
   <si>
     <t>C24, C25, C26, C27, C28, C29, C30, C49, C53, C57, C61</t>
@@ -123,6 +123,9 @@
     <t>U8</t>
   </si>
   <si>
+    <t>U9</t>
+  </si>
+  <si>
     <t>MANF</t>
   </si>
   <si>
@@ -228,7 +231,7 @@
     <t>22-11-2102</t>
   </si>
   <si>
-    <t>22-11-2032</t>
+    <t>22-11-2042</t>
   </si>
   <si>
     <t>22-11-2022</t>
@@ -273,6 +276,9 @@
     <t>EMI2121MTTAG</t>
   </si>
   <si>
+    <t>MCP1703T-1802E/CB</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -333,7 +339,7 @@
     <t>WM2708-ND</t>
   </si>
   <si>
-    <t>WM2701-ND</t>
+    <t>WM2702-ND</t>
   </si>
   <si>
     <t>WM2700-ND</t>
@@ -378,6 +384,9 @@
     <t>EMI2121MTTAGOSCT-ND</t>
   </si>
   <si>
+    <t>MCP1703T-1802E/CBCT-ND</t>
+  </si>
+  <si>
     <t>P&amp;V Description</t>
   </si>
   <si>
@@ -423,7 +432,7 @@
     <t>Connector, Header, 0.1", 10 Positions, Male, 0.1" Spacing, 4A, 250V, Vertical, 0.24" Long, 0.125" Tail, 15u" Select Gold, Polarized, Locking Ramp</t>
   </si>
   <si>
-    <t>Connector, Header, 0.1", 3 Positions, Male, 0.1" Spacing, 4A, 250V, 0.24" Long, 0.125" Tail, 15u" Select Gold, Polarized, Locking Ramp, Vertical</t>
+    <t>Connector, Header, 0.1", 4 Positions, Male, 0.1" Spacing, 4A, 250V, 0.24" Long, 0.125" Tail, 15u" Select Gold, Polarized, Locking Ramp, Vert</t>
   </si>
   <si>
     <t>Connector, Header, 0.1", 2 Positions, Male, 0.1" Spacing, 4A, 250V, 0.24" Long, 0.125" Tail, 15u Select Gold, Polarized, Locking Ramp</t>
@@ -456,6 +465,9 @@
     <t>IC, Channel Protector, USB Common-Mode Filter and ESD Protection, WDFN-8, SMD</t>
   </si>
   <si>
+    <t>IC, Voltage Regulator, 1.8Vout, 2.7-16Vin, 200mA, -40°C ~ 125°C, SOT-23, SMD</t>
+  </si>
+  <si>
     <t>Footprint</t>
   </si>
   <si>
@@ -495,7 +507,7 @@
     <t>0.1HDR1X10P</t>
   </si>
   <si>
-    <t>0.1HDR1X3P</t>
+    <t>0.1HDR1X4P</t>
   </si>
   <si>
     <t>0.1HDR1X2P</t>
@@ -528,6 +540,9 @@
     <t>EMI2121</t>
   </si>
   <si>
+    <t>SOT23-12-3TOP</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -601,6 +616,9 @@
   </si>
   <si>
     <t>24MHz XO</t>
+  </si>
+  <si>
+    <t>1.8V</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
@@ -1071,28 +1089,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -1100,28 +1118,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
@@ -1129,28 +1147,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4">
         <v>39</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1158,28 +1176,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -1187,28 +1205,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4">
         <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1216,28 +1234,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1245,28 +1263,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1274,28 +1292,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1303,28 +1321,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1332,28 +1350,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1361,28 +1379,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1390,28 +1408,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1419,28 +1437,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1448,28 +1466,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1477,28 +1495,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1506,28 +1524,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1535,28 +1553,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1564,28 +1582,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1593,28 +1611,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1622,28 +1640,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1651,28 +1669,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1680,28 +1698,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1709,28 +1727,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1738,28 +1756,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1767,28 +1785,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1796,28 +1814,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1825,28 +1843,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1854,28 +1872,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -1883,28 +1901,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1912,28 +1930,57 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1993,7 @@
 &amp;8Probe-Scope: Unified USB Oscilloscope Probe
 ©2019 M. Omo, J. Rowley, K. Hall
 Released under the CERN OHL v1.2</oddHeader>
-    <oddFooter>&amp;L2019-06-20&amp;C&amp;P/&amp;N&amp;RProbe-Scope Digital Test v1.0.0</oddFooter>
+    <oddFooter>&amp;L2019-06-21&amp;C&amp;P/&amp;N&amp;RProbe-Scope Digital Test v1.0.0</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
